--- a/data/eypc/eypc.xlsx
+++ b/data/eypc/eypc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\opensrc\github.com\shaoyuta\rn50\data\eypc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861000DF-EF7D-4479-B18D-09B8196014D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E352F1A6-4E03-47C7-91B6-B39A8824E9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23175" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="09-05" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>accuracy_fp32_inference_ap_real</t>
   </si>
@@ -82,14 +82,41 @@
   </si>
   <si>
     <t>BM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.158   35.043  35.297  34.901  34.645  34.663  34.668  35.596
+</t>
+  </si>
+  <si>
+    <t>35.401  35.134  35.082  34.752  34.717  34.874  35.062  36.184</t>
+  </si>
+  <si>
+    <t>Legacy VM</t>
+  </si>
+  <si>
+    <t>Throughput (images/sec)</t>
+  </si>
+  <si>
+    <t>Latency (ms)</t>
+  </si>
+  <si>
+    <t>SEV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -105,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -113,13 +140,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,247 +524,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="K1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4">
         <v>72.89</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4">
         <v>75.099999999999994</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
         <v>74.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="4">
         <v>70.77</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4">
         <v>73.52</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4">
         <v>72.150000000000006</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
         <v>11.823</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="3">
         <v>10.657</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="4">
         <v>11.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="G10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="4">
+        <v>35.073599999999999</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="4">
+        <v>33.662999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
         <v>11.805999999999999</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="3">
         <v>10.864000000000001</v>
       </c>
-      <c r="D11">
+      <c r="E11" s="4">
         <v>11.335000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4">
+        <v>71.260999999999996</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <v>69.511600000000001</v>
+      </c>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
         <v>13.204000000000001</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="3">
         <v>13.378</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="4">
         <v>13.291</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="4">
+        <v>62.255499999999998</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4">
+        <v>60.247599999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
         <v>4.109</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="3">
         <v>3.8889999999999998</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="4">
         <v>3.9990000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="4">
+        <v>17.913</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4">
+        <v>17.395</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
         <v>4.992</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="3">
         <v>4.6020000000000003</v>
       </c>
-      <c r="D14">
+      <c r="E14" s="4">
         <v>4.7969999999999997</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4">
+        <v>35.984699999999997</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4">
+        <v>36.3399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
         <v>4.7370000000000001</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="3">
         <v>4.1539999999999999</v>
       </c>
-      <c r="D15">
+      <c r="E15" s="4">
         <v>4.4455</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="4">
+        <v>26.3386</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4">
+        <v>25.693899999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2">
         <v>363.42</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="3">
         <v>267.08999999999997</v>
       </c>
-      <c r="D17">
+      <c r="E17" s="4">
         <v>630.51</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
         <v>385.22</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="3">
         <v>286.25</v>
       </c>
-      <c r="D18">
+      <c r="E18" s="4">
         <v>671.47</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
         <v>803.45</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="3">
         <v>413.36</v>
       </c>
-      <c r="D19">
+      <c r="E19" s="4">
         <v>1216.81</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="G19" s="2"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4">
+        <v>63.67</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="4">
+        <v>24.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
         <v>1108.55</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="3">
         <v>1164.4100000000001</v>
       </c>
-      <c r="D20">
+      <c r="E20" s="4">
         <v>2272.96</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="G20" s="2"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
         <v>563.66</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="3">
         <v>494.6</v>
       </c>
-      <c r="D21">
+      <c r="E21" s="4">
         <v>1058.26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="G21" s="2"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="5">
         <v>1818.77</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="6">
         <v>1809.97</v>
       </c>
-      <c r="D22">
+      <c r="E22" s="7">
         <v>3628.74</v>
       </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>